--- a/RASTA/risultati/CTM/result_npmi/topics.xlsx
+++ b/RASTA/risultati/CTM/result_npmi/topics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,312 +468,780 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>comune</t>
+          <t>secolo</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>storico</t>
+          <t>xiv</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>trova</t>
+          <t>complesso</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>collegiata</t>
+          <t>arte</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>arcangelo</t>
+          <t>xvi</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>san</t>
+          <t>francesco</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>chiesa</t>
+          <t>convento</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>michele</t>
+          <t>francescano</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>centro</t>
+          <t>ospitata</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>assisi</t>
+          <t>xiii</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>per</t>
+          <t>spoleto</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>localita</t>
+          <t>con</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>via</t>
+          <t>reperti</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>nella</t>
+          <t>culturale</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>quale</t>
+          <t>norcia</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>anni</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>due</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>fontana</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>delle</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>costruito</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>attivita</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>metri</t>
-        </is>
-      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>dopo</t>
+          <t>caratteristiche</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>nel</t>
+          <t>avorio</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>vitigno</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>chiamato</t>
+          <t>lamine</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>xiv</t>
+          <t>preghiera</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>suo</t>
+          <t>etruscaa</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>sec</t>
+          <t>sbalzo</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>scopo</t>
+          <t>legno</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>secolo</t>
+          <t>rivestito</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>interno</t>
+          <t>placche</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>oggi</t>
+          <t>bartolomeo</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>dalla</t>
+          <t>immerso</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sulle</t>
+          <t>tradizione</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>nera</t>
+          <t>ricca</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>romana</t>
+          <t>natura</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>antico</t>
+          <t>sentieri</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>sul</t>
+          <t>boschi</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>contesto</t>
+          <t>mtb</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>collina</t>
+          <t>deruta</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>che</t>
+          <t>confine</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>tre</t>
+          <t>passeggiate</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>situato</t>
+          <t>maria</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>nel</t>
+          <t>santa</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>filippo</t>
+          <t>secolo</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>etrusca</t>
+          <t>edificio</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>colle</t>
+          <t>chiesa</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>tiberio</t>
+          <t>assunta</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>impianto</t>
+          <t>xii</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>una</t>
+          <t>piazza</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>allainterno</t>
+          <t>venne</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>tevere</t>
+          <t>parrocchiale</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>francesco</t>
+          <t>maestro</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>momenti</t>
+          <t>palazzo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>primo</t>
+          <t>anticamente</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ricerca</t>
+          <t>dei</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>celebre</t>
+          <t>iacovetti</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>xiii</t>
+          <t>cardinale</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>urbiche</t>
+          <t>esattamente</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>scalo</t>
+          <t>costruire</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>quello</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>church</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nicola</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>parco</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>allainterno</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>frazione</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>repubblica</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>pinacoteca</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>visita</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>museo</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>all</t>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>nord</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>sede</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>chiesa</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>santa</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>maria</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>fuori</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>facciata</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>convento</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>dedicata</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>cattedrale</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>maggiore</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>poco</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>etrusca</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>fiume</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>tevere</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>area</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>necropoli</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>sud</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>archeologica</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>lungo</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>lago</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>trasimeno</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>distanza</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>scoperta</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>antico</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>conosciuto</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>antiche</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>pochi</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>incontaminata</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>chilometri</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>poca</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>mozzafiato</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>lago</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>del</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>centro</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>palazzo</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>anche</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>militare</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>urbano</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>storico</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>trasimeno</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>perugia</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>costruita</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>nord</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>porta</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>eta</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>orvieto</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>costruito</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>quello</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>est</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>anno</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>suo</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>che</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>del</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>come</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>della</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>sulla</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>nel</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>edificata</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>oggi</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>castello</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>monastero</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>medievale</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>borgo</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>uno</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>medievali</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>percorso</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>piccolo</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>tra</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>serie</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>umbria</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>luogo</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>centro</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>san</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>storico</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>chiesa</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>michele</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>arcangelo</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>bernardino</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>piazza</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>trova</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>parrocchiale</t>
         </is>
       </c>
     </row>
